--- a/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample09-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample09-from-config-file.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">SYNTEC-PC6\fernandogarciavega</d:author>
+    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">MACBOOKPRO18\fernandogarciavega</d:author>
   </authors>
   <commentList>
     <comment ref="D11" authorId="0">

--- a/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample09-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample09-from-config-file.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">MACBOOKPRO18\fernandogarciavega</d:author>
+    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">SYNTEC-PC6\fernandogarciavega</d:author>
   </authors>
   <commentList>
     <comment ref="D11" authorId="0">

--- a/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample09-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample09-from-config-file.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">SYNTEC-PC6\fernandogarciavega</d:author>
+    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">FERNANDOGARC2C9\fernandogarciavega</d:author>
   </authors>
   <commentList>
     <comment ref="D11" authorId="0">

--- a/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample09-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/writer/xlsx/ExportEngine/sample09-from-config-file.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">FERNANDOGARC2C9\fernandogarciavega</d:author>
+    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">DESKTOP-5FLQ159\fdoga</d:author>
   </authors>
   <commentList>
     <comment ref="D11" authorId="0">
